--- a/biology/Médecine/Hyperinsulinisme_familial/Hyperinsulinisme_familial.xlsx
+++ b/biology/Médecine/Hyperinsulinisme_familial/Hyperinsulinisme_familial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyperinsulinisme familial est une maladie génétique se manifestant par une hypoglycémie. Celle-ci peut être sévère survenant dès les premières heures de vie, ou survenant dans les premiers mois ou des manifestations peu parlantes entraînant un diagnostic tardif de cette maladie.
 La forme néonatale se manifeste par une hypotonie, des convulsions, une difficulté alimentaire ou des pauses respiratoires. Dans les cas les plus sévères, l'hypoglycémie est manifeste ; dans les cas moins sévères, l'hypoglycémie est plus difficile à mettre en évidence. Les variations intrafamiliales de la maladie sont grandes.
@@ -517,9 +529,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Benjamin Glaser, Familial Hyperinsulinism In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Benjamin Glaser, Familial Hyperinsulinism In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 </t>
         </is>
       </c>
     </row>
